--- a/data/raw-data/exampledata2.xlsx
+++ b/data/raw-data/exampledata2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA506A5F-2BA9-43E3-920A-72EB7E8B120F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A78E2B-D239-47EE-8929-4AE1636C6AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>Height</t>
   </si>
@@ -98,6 +98,18 @@
   </si>
   <si>
     <t>overweight</t>
+  </si>
+  <si>
+    <t>BMI score</t>
+  </si>
+  <si>
+    <t>15 to 30</t>
+  </si>
+  <si>
+    <t>BMI category based on score</t>
+  </si>
+  <si>
+    <t>underweight, healthy, overweight, obese</t>
   </si>
 </sst>
 </file>
@@ -105,7 +117,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -144,10 +156,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,10 +711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A2C8F0-62B4-4D60-B490-D490A3E0B40F}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -755,6 +768,28 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
